--- a/biology/Botanique/Rosa_maximowicziana/Rosa_maximowicziana.xlsx
+++ b/biology/Botanique/Rosa_maximowicziana/Rosa_maximowicziana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa maximowicziana est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Cinnamomeae, originaire du nord-est de l'Asie. Elle est nommée en l'honneur de Carl Maximowicz, académicien et naturaliste russe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un buisson de moins de 2 mètres de haut, à fines tiges aux aiguillons clairsemés qui ressemble à Rosa fedtschenkoana.
 Les fleurs de 3 à 5 cm de diamètre sont simples, blanches, en petits bouquets.
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre cette espèce dans les clairières, les prés, les berges, les rivages du sud du kraï du Primorié, en Corée, dans les provinces chinoises de Liaoning et de Shandong[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre cette espèce dans les clairières, les prés, les berges, les rivages du sud du kraï du Primorié, en Corée, dans les provinces chinoises de Liaoning et de Shandong.
 Elle a tendance à se disséminer le long des voies de chemin de fer.
 </t>
         </is>
